--- a/CashFlow/TDG_cashflow.xlsx
+++ b/CashFlow/TDG_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>5224000000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5234000000.0</v>
+        <v>-62000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4015000000.0</v>
+        <v>-62000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2616000000.0</v>
+        <v>-88000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1287000000.0</v>
+        <v>-76000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-36000000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-68000000.0</v>
+        <v>912000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-62000000.0</v>
+        <v>980000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-229000000.0</v>
+        <v>581000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-88000000.0</v>
+        <v>455000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-91000000.0</v>
+        <v>188000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-66000000.0</v>
